--- a/Skins/details.xlsx
+++ b/Skins/details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>label</t>
   </si>
@@ -54,6 +54,24 @@
   </si>
   <si>
     <t>E:\Git\git-bash.exe</t>
+  </si>
+  <si>
+    <t>baiduyun</t>
+  </si>
+  <si>
+    <t>C:\Users\brainwatcher\AppData\Roaming\baidu\BaiduNetdisk\BaiduNetdisk.exe</t>
+  </si>
+  <si>
+    <t>lantern</t>
+  </si>
+  <si>
+    <t>C:\Users\brainwatcher\AppData\Roaming\Lantern\lantern.exe</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>"C:\Users\brainwatcher\AppData\Local\Epic Privacy Browser\Application\epic.exe"</t>
   </si>
 </sst>
 </file>
@@ -99,7 +117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -189,6 +207,48 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="0">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Skins/details.xlsx
+++ b/Skins/details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>label</t>
   </si>
@@ -178,6 +178,22 @@
   </si>
   <si>
     <t>C:\Program Files\Adobe\Adobe Photoshop CS6 (64 Bit)\Photoshop.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shell:::{74246bfc-4c96-11d0-abef-0020af6b0b7a}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shell:::{7b81be6a-ce2b-4676-a29e-eb907a5126c5}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,6 +798,34 @@
         <v>10</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Skins/details.xlsx
+++ b/Skins/details.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\rainmeter\Skins\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brainwatcher\Documents\Rainmeter\Skins\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>label</t>
   </si>
@@ -36,9 +36,6 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>C:\Program Files (x86)\Google\Chrome\Application\chrome.exe</t>
-  </si>
-  <si>
     <t>wechat</t>
   </si>
   <si>
@@ -60,58 +57,15 @@
     <t>epic</t>
   </si>
   <si>
-    <t>C:\Program Files\MATLAB\R2019a\bin\matlab.exe</t>
-  </si>
-  <si>
-    <t>C:\Program Files\Git\git-bash.exe --cd-to-home</t>
-  </si>
-  <si>
-    <t>C:\Users\admin\AppData\Roaming\baidu\BaiduNetdisk\BaiduNetdisk.exe</t>
-  </si>
-  <si>
-    <t>C:\Users\admin\AppData\Local\Epic Privacy Browser\Application\epic.exe</t>
-  </si>
-  <si>
-    <t>C:\Users\admin\AppData\Roaming\Lantern\lantern.exe</t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\Tencent\QQ\Bin\QQScLauncher.exe</t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\Tencent\WeChat\WeChat.exe</t>
-  </si>
-  <si>
     <t>youdao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\admin\AppData\Local\youdao\dict\Application\YoudaoDict.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adobe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pdfpaste</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\Adobe\Acrobat Reader DC\Reader\AcroRd32.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C:\Program Files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>\PDF Copy-Paster ALL active for any window any program</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -165,22 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Program Files\Core Temp\Core Temp.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core Temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Program Files\Adobe\Adobe Photoshop CS6 (64 Bit)\Photoshop.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>device</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,6 +132,55 @@
   </si>
   <si>
     <t>shell:::{7b81be6a-ce2b-4676-a29e-eb907a5126c5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Google\Chrome\Application\chrome.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\WeChat\WeChat.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E:\MATLAB_2019a\bin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>\matlab.exe</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\QQ\Bin\QQScLauncher.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Adobe\Acrobat Reader DC\Reader\AcroRd32.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\brainwatcher\AppData\Roaming\baidu\BaiduNetdisk\BaiduNetdisk.exe</t>
+  </si>
+  <si>
+    <t>C:\Users\brainwatcher\AppData\Roaming\Lantern\lantern.exe</t>
+  </si>
+  <si>
+    <t>C:\Users\brainwatcher\AppData\Local\Epic Privacy Browser\Application\epic.exe</t>
+  </si>
+  <si>
+    <t>C:\Users\brainwatcher\AppData\Local\youdao\dict\Application\YoudaoDict.exe</t>
+  </si>
+  <si>
+    <t>C:\ProgramData\Microsoft\Windows\Start Menu\Programs\PDF Copy-Paster ALL active for any window any program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">E:\Git\git-bash.exe </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,18 +508,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="70.140625" customWidth="1"/>
+    <col min="3" max="3" width="70.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -554,275 +541,247 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21">
         <v>12</v>
       </c>
     </row>
